--- a/cfg/道具.xlsx
+++ b/cfg/道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_item" sheetId="4" r:id="rId1"/>
@@ -149,13 +149,13 @@
     <t>int</t>
   </si>
   <si>
-    <t>wxdgaming.chargame.server.bean.bag.ItemType</t>
+    <t>wxdgaming.spring.gamebase.entity.ItemType</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>wxdgaming.chargame.server.bean.AttrInfo</t>
+    <t>wxdgaming.spring.gamebase.entity.AttrInfo</t>
   </si>
   <si>
     <t>主键id</t>
@@ -862,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,9 +870,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,8 +1199,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1221,7 +1218,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:12">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1234,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" ht="14.25" spans="1:12">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1270,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:12">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1306,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:12">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1337,7 @@
       <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="3"/>
@@ -1373,7 +1370,7 @@
       <c r="I5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1381,11 +1378,11 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" ht="14.25" spans="1:12">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1415,11 +1412,11 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" ht="14.25" spans="1:12">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1449,11 +1446,11 @@
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" ht="14.25" spans="1:12">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1483,11 +1480,11 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" ht="14.25" spans="1:12">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
